--- a/energy_sources.xlsx
+++ b/energy_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommasosalvatori/Desktop/MIT/15.095 - Machine Learning/Project/ml_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C3AFF7-5C76-0B4E-AFC3-C1B57AC73492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1A0AD-D20E-4645-AF39-B223AD781CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16020" xr2:uid="{9E7BD7AE-6777-7640-8161-71A42E917699}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,9 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
         <v>4708</v>
       </c>
       <c r="C2" s="2">
-        <v>820000</v>
+        <v>820</v>
       </c>
       <c r="D2" s="2">
         <v>134</v>
@@ -540,7 +540,6 @@
       <c r="E2" s="2">
         <v>34060028.301595539</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -551,7 +550,7 @@
         <v>2230</v>
       </c>
       <c r="C3" s="2">
-        <v>490000</v>
+        <v>490</v>
       </c>
       <c r="D3" s="2">
         <v>90</v>
@@ -559,7 +558,6 @@
       <c r="E3" s="2">
         <v>1956915.8998134308</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -572,17 +570,17 @@
       <c r="E4" s="2">
         <v>179068.44557426998</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2289</v>
+        <v>808</v>
       </c>
       <c r="C5" s="2">
-        <v>24000</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2">
         <v>90</v>
@@ -590,17 +588,16 @@
       <c r="E5" s="2">
         <v>7080623.3348483322</v>
       </c>
-      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4125</v>
+        <v>993</v>
       </c>
       <c r="C6" s="2">
-        <v>11000</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>61</v>
@@ -608,17 +605,16 @@
       <c r="E6" s="2">
         <v>2851962.0373533326</v>
       </c>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>908</v>
+        <v>528</v>
       </c>
       <c r="C7" s="2">
-        <v>41000</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
         <v>78</v>
@@ -626,7 +622,6 @@
       <c r="E7" s="2">
         <v>4631908.7981930841</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -634,13 +629,12 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>230000</v>
+        <v>230</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>728972.96637459099</v>
       </c>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
